--- a/詳細設計/詳細設計書.xlsx
+++ b/詳細設計/詳細設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="416">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="5">
@@ -4253,6 +4253,13 @@
     <t>初版作成</t>
     <rPh sb="0" eb="4">
       <t>ショハンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4822,7 +4829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5027,14 +5034,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5063,10 +5070,34 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5087,30 +5118,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5118,6 +5125,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11402,135 +11412,135 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="28"/>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="30"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="28"/>
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="30"/>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="28"/>
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="28"/>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="28"/>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="28"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="28"/>
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="28"/>
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="28"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="28"/>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="28"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="28"/>
       <c r="I19" s="22"/>
     </row>
@@ -11742,18 +11752,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="D12:G13"/>
+    <mergeCell ref="B12:C13"/>
     <mergeCell ref="D14:G15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:G17"/>
     <mergeCell ref="D18:G19"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B18:C19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11766,7 +11776,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12063,7 +12073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -12209,7 +12219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -12764,20 +12774,20 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
@@ -12786,11 +12796,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -12849,48 +12859,48 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -12912,48 +12922,48 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -12975,48 +12985,48 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -13024,48 +13034,48 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
@@ -13073,34 +13083,34 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
@@ -13108,48 +13118,48 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
@@ -13157,48 +13167,48 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -13206,48 +13216,48 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -13265,38 +13275,38 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
@@ -13304,38 +13314,38 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="70"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="70"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="70"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
@@ -13343,38 +13353,38 @@
       </c>
     </row>
     <row r="71" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
@@ -13394,6 +13404,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B31:M33"/>
+    <mergeCell ref="B36:M38"/>
     <mergeCell ref="B63:O64"/>
     <mergeCell ref="B67:O68"/>
     <mergeCell ref="B71:O72"/>
@@ -13403,11 +13418,6 @@
     <mergeCell ref="B55:M57"/>
     <mergeCell ref="B41:M42"/>
     <mergeCell ref="B45:M47"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B31:M33"/>
-    <mergeCell ref="B36:M38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13436,12 +13446,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -15980,10 +15990,10 @@
       <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
@@ -15992,10 +16002,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
@@ -17474,7 +17484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -17724,7 +17734,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -18002,9 +18012,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -18014,9 +18026,9 @@
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -18059,6 +18071,9 @@
       <c r="K29" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E25:G26"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
